--- a/Codemind React B8-G1.xlsx
+++ b/Codemind React B8-G1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -39,15 +39,6 @@
     <t>Kshitija Bhore</t>
   </si>
   <si>
-    <t xml:space="preserve">Sneha </t>
-  </si>
-  <si>
-    <t>Pooja</t>
-  </si>
-  <si>
-    <t>Sridevi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Namrata </t>
   </si>
   <si>
@@ -57,7 +48,28 @@
     <t>Adhyayani</t>
   </si>
   <si>
-    <t xml:space="preserve">kiran </t>
+    <t>Sneha Bodhe</t>
+  </si>
+  <si>
+    <t>Sridevi Bhuyar</t>
+  </si>
+  <si>
+    <t>Pooja Chandele</t>
+  </si>
+  <si>
+    <t>kiran Walekar</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Not able to attend due to office</t>
+  </si>
+  <si>
+    <t>Variable Scope</t>
+  </si>
+  <si>
+    <t>Not informed</t>
   </si>
 </sst>
 </file>
@@ -409,7 +421,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +457,9 @@
       <c r="B2" s="2">
         <v>44934</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -453,53 +468,77 @@
       <c r="B3" s="2">
         <v>44934</v>
       </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>44934</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>44934</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>44934</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>44934</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>44934</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>44934</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -508,6 +547,9 @@
       </c>
       <c r="B10" s="2">
         <v>44934</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
